--- a/Networks/Parte2/Excel/Parte2-Network6.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network6.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2463354757050784</v>
+        <v>-0.4391767347414131</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5397618974023995</v>
+        <v>0.0291736642814527</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.003700192518644</v>
+        <v>0.1500138330350813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3998784239512463</v>
+        <v>0.8120492616816498</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.431099874453141</v>
+        <v>0.1971588882678229</v>
       </c>
       <c r="C4" t="n">
-        <v>1.487159652756862</v>
+        <v>0.7493492955355091</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.408171438841972</v>
+        <v>-1.231142294725017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1847327242216496</v>
+        <v>-0.6286683659443316</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.489809244474914</v>
+        <v>0.158834666381007</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6468593425154252</v>
+        <v>0.8549697779871629</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.415725132887617</v>
+        <v>0.3343977303686733</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.008251686705399768</v>
+        <v>0.3590014067971175</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network6.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network6.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4391767347414131</v>
+        <v>-0.6191948357417691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0291736642814527</v>
+        <v>0.4159850722554189</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1500138330350813</v>
+        <v>0.6106777816265282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8120492616816498</v>
+        <v>-1.244048072573338</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1971588882678229</v>
+        <v>-1.036296691387035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7493492955355091</v>
+        <v>-1.335196263520278</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.231142294725017</v>
+        <v>-0.4058235718665035</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6286683659443316</v>
+        <v>-0.01019866353021514</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.158834666381007</v>
+        <v>-0.2581535674892162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8549697779871629</v>
+        <v>0.5716470043357291</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3343977303686733</v>
+        <v>-2.134410621890477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3590014067971175</v>
+        <v>-0.5780563044708875</v>
       </c>
     </row>
   </sheetData>
